--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoatran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khoatran/Documents/Project/blindspotdetection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444B855-1C97-EA43-9639-4FB10FF0CEE8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11FDA63-D6C8-B145-8D71-97E502A9AFAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="5140" windowWidth="24760" windowHeight="15020" activeTab="2" xr2:uid="{69E93666-412D-1840-B86B-C3BDE6018ED4}"/>
+    <workbookView xWindow="780" yWindow="440" windowWidth="24760" windowHeight="15020" activeTab="2" xr2:uid="{69E93666-412D-1840-B86B-C3BDE6018ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Type of Sensor" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="216">
   <si>
     <t>Criteria</t>
   </si>
@@ -664,6 +664,18 @@
   </si>
   <si>
     <t>Analog(5-conductor connector)</t>
+  </si>
+  <si>
+    <t>6,000 mm</t>
+  </si>
+  <si>
+    <t>400 mm</t>
+  </si>
+  <si>
+    <t>Linearity: 1%</t>
+  </si>
+  <si>
+    <t>No software required</t>
   </si>
 </sst>
 </file>
@@ -1799,9 +1811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6246C-E949-0144-B290-14F28F490E00}">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1915,6 +1927,9 @@
       <c r="G5" t="s">
         <v>205</v>
       </c>
+      <c r="H5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -2064,6 +2079,9 @@
       <c r="G13" s="17" t="s">
         <v>194</v>
       </c>
+      <c r="H13" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -2124,6 +2142,9 @@
       <c r="G17" t="s">
         <v>192</v>
       </c>
+      <c r="H17" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
@@ -2146,6 +2167,9 @@
       </c>
       <c r="G18" t="s">
         <v>197</v>
+      </c>
+      <c r="H18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:8">
